--- a/src/public/Reporte de Equipos.xlsx
+++ b/src/public/Reporte de Equipos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Equipo</t>
   </si>
@@ -103,16 +103,7 @@
     <t>Alejandro2 Castañeda2</t>
   </si>
   <si>
-    <t>No cuenta con competidor #2</t>
-  </si>
-  <si>
-    <t>Softwarers</t>
-  </si>
-  <si>
-    <t>No cuenta con capitan</t>
-  </si>
-  <si>
-    <t>No cuenta con competidor #1</t>
+    <t>Alejandro3 Castañeda3</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="25" customWidth="1"/>
@@ -607,20 +598,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/src/public/Reporte de Equipos.xlsx
+++ b/src/public/Reporte de Equipos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Equipo</t>
   </si>
@@ -22,18 +22,6 @@
     <t>Competidor</t>
   </si>
   <si>
-    <t>Los Javaiders</t>
-  </si>
-  <si>
-    <t>Juan0 Perez0</t>
-  </si>
-  <si>
-    <t>Juan1 Perez1</t>
-  </si>
-  <si>
-    <t>Juan2 Perez2</t>
-  </si>
-  <si>
     <t>Phytons</t>
   </si>
   <si>
@@ -82,18 +70,6 @@
     <t>Juan14 Perez14</t>
   </si>
   <si>
-    <t>xiaomers</t>
-  </si>
-  <si>
-    <t>Jhonatan Castro</t>
-  </si>
-  <si>
-    <t>Alejandro Castillo</t>
-  </si>
-  <si>
-    <t>Monica Castañeda</t>
-  </si>
-  <si>
     <t>Hola Mundo</t>
   </si>
   <si>
@@ -104,6 +80,36 @@
   </si>
   <si>
     <t>Alejandro3 Castañeda3</t>
+  </si>
+  <si>
+    <t>los programmers</t>
+  </si>
+  <si>
+    <t>cristian david sanchez malagon</t>
+  </si>
+  <si>
+    <t>daniela andrea roa morales</t>
+  </si>
+  <si>
+    <t>No cuenta con competidor #2</t>
+  </si>
+  <si>
+    <t>swords</t>
+  </si>
+  <si>
+    <t>juan daniel roa perez</t>
+  </si>
+  <si>
+    <t>luis esteban cardenas</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>maria melinda mercedes calero</t>
+  </si>
+  <si>
+    <t>juanito alcachofa 3 gonzales</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="25" customWidth="1"/>
@@ -595,7 +601,21 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
